--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H2">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I2">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J2">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.06139526625746</v>
+        <v>1.148853</v>
       </c>
       <c r="N2">
-        <v>5.06139526625746</v>
+        <v>3.446559</v>
       </c>
       <c r="O2">
-        <v>0.6204948952316656</v>
+        <v>0.04807783529489357</v>
       </c>
       <c r="P2">
-        <v>0.6204948952316656</v>
+        <v>0.04901969401652802</v>
       </c>
       <c r="Q2">
-        <v>751.4993636347356</v>
+        <v>180.491808176084</v>
       </c>
       <c r="R2">
-        <v>751.4993636347356</v>
+        <v>1624.426273584756</v>
       </c>
       <c r="S2">
-        <v>0.148264724759051</v>
+        <v>0.01083906157273552</v>
       </c>
       <c r="T2">
-        <v>0.148264724759051</v>
+        <v>0.01156331395748401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H3">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I3">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J3">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.19643625586457</v>
+        <v>5.697325333333334</v>
       </c>
       <c r="N3">
-        <v>2.19643625586457</v>
+        <v>17.091976</v>
       </c>
       <c r="O3">
-        <v>0.2692691269444105</v>
+        <v>0.2384248193610712</v>
       </c>
       <c r="P3">
-        <v>0.2692691269444105</v>
+        <v>0.2430956306443153</v>
       </c>
       <c r="Q3">
-        <v>326.1196491707713</v>
+        <v>895.0845331654651</v>
       </c>
       <c r="R3">
-        <v>326.1196491707713</v>
+        <v>8055.760798489186</v>
       </c>
       <c r="S3">
-        <v>0.06434075976985668</v>
+        <v>0.053752447082356</v>
       </c>
       <c r="T3">
-        <v>0.06434075976985668</v>
+        <v>0.057344117608833</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H4">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I4">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J4">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.899198141059578</v>
+        <v>6.853141</v>
       </c>
       <c r="N4">
-        <v>0.899198141059578</v>
+        <v>20.559423</v>
       </c>
       <c r="O4">
-        <v>0.110235977823924</v>
+        <v>0.286794032178775</v>
       </c>
       <c r="P4">
-        <v>0.110235977823924</v>
+        <v>0.2924124103537379</v>
       </c>
       <c r="Q4">
-        <v>133.5099898821924</v>
+        <v>1076.670218710015</v>
       </c>
       <c r="R4">
-        <v>133.5099898821924</v>
+        <v>9690.031968390131</v>
       </c>
       <c r="S4">
-        <v>0.02634043734478552</v>
+        <v>0.06465719919401201</v>
       </c>
       <c r="T4">
-        <v>0.02634043734478552</v>
+        <v>0.06897751146396097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>391.450386706388</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H5">
-        <v>391.450386706388</v>
+        <v>471.318284</v>
       </c>
       <c r="I5">
-        <v>0.6299672705088303</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J5">
-        <v>0.6299672705088303</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.06139526625746</v>
+        <v>8.818982666666665</v>
       </c>
       <c r="N5">
-        <v>5.06139526625746</v>
+        <v>26.456948</v>
       </c>
       <c r="O5">
-        <v>0.6204948952316656</v>
+        <v>0.3690616607316352</v>
       </c>
       <c r="P5">
-        <v>0.6204948952316656</v>
+        <v>0.3762916855829809</v>
       </c>
       <c r="Q5">
-        <v>1981.285134250364</v>
+        <v>1385.515925693026</v>
       </c>
       <c r="R5">
-        <v>1981.285134250364</v>
+        <v>12469.64333123723</v>
       </c>
       <c r="S5">
-        <v>0.390891475513755</v>
+        <v>0.08320428821867314</v>
       </c>
       <c r="T5">
-        <v>0.390891475513755</v>
+        <v>0.08876389351838422</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>391.450386706388</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H6">
-        <v>391.450386706388</v>
+        <v>471.318284</v>
       </c>
       <c r="I6">
-        <v>0.6299672705088303</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J6">
-        <v>0.6299672705088303</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.19643625586457</v>
+        <v>1.377387</v>
       </c>
       <c r="N6">
-        <v>2.19643625586457</v>
+        <v>2.754774</v>
       </c>
       <c r="O6">
-        <v>0.2692691269444105</v>
+        <v>0.05764165243362517</v>
       </c>
       <c r="P6">
-        <v>0.2692691269444105</v>
+        <v>0.0391805794024379</v>
       </c>
       <c r="Q6">
-        <v>859.7958217341168</v>
+        <v>216.395892414636</v>
       </c>
       <c r="R6">
-        <v>859.7958217341168</v>
+        <v>1298.375354487816</v>
       </c>
       <c r="S6">
-        <v>0.169630736933466</v>
+        <v>0.01299520696075604</v>
       </c>
       <c r="T6">
-        <v>0.169630736933466</v>
+        <v>0.00924235350212025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,433 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H7">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I7">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J7">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.899198141059578</v>
+        <v>1.148853</v>
       </c>
       <c r="N7">
-        <v>0.899198141059578</v>
+        <v>3.446559</v>
       </c>
       <c r="O7">
-        <v>0.110235977823924</v>
+        <v>0.04807783529489357</v>
       </c>
       <c r="P7">
-        <v>0.110235977823924</v>
+        <v>0.04901969401652802</v>
       </c>
       <c r="Q7">
-        <v>351.991460043437</v>
+        <v>513.1563148783069</v>
       </c>
       <c r="R7">
-        <v>351.991460043437</v>
+        <v>4618.406833904763</v>
       </c>
       <c r="S7">
-        <v>0.06944505806160935</v>
+        <v>0.03081653926353115</v>
       </c>
       <c r="T7">
-        <v>0.06944505806160935</v>
+        <v>0.03287566143951814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.297937132205239</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H8">
-        <v>0.297937132205239</v>
+        <v>1340.005157</v>
       </c>
       <c r="I8">
-        <v>0.000479474917722696</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J8">
-        <v>0.000479474917722696</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.06139526625746</v>
+        <v>5.697325333333334</v>
       </c>
       <c r="N8">
-        <v>5.06139526625746</v>
+        <v>17.091976</v>
       </c>
       <c r="O8">
-        <v>0.6204948952316656</v>
+        <v>0.2384248193610712</v>
       </c>
       <c r="P8">
-        <v>0.6204948952316656</v>
+        <v>0.2430956306443153</v>
       </c>
       <c r="Q8">
-        <v>1.50797759058592</v>
+        <v>2544.815109257804</v>
       </c>
       <c r="R8">
-        <v>1.50797759058592</v>
+        <v>22903.33598332024</v>
       </c>
       <c r="S8">
-        <v>0.0002975117388385557</v>
+        <v>0.1528235986952007</v>
       </c>
       <c r="T8">
-        <v>0.0002975117388385557</v>
+        <v>0.1630350782645443</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.297937132205239</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H9">
-        <v>0.297937132205239</v>
+        <v>1340.005157</v>
       </c>
       <c r="I9">
-        <v>0.000479474917722696</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J9">
-        <v>0.000479474917722696</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.19643625586457</v>
+        <v>6.853141</v>
       </c>
       <c r="N9">
-        <v>2.19643625586457</v>
+        <v>20.559423</v>
       </c>
       <c r="O9">
-        <v>0.2692691269444105</v>
+        <v>0.286794032178775</v>
       </c>
       <c r="P9">
-        <v>0.2692691269444105</v>
+        <v>0.2924124103537379</v>
       </c>
       <c r="Q9">
-        <v>0.6543999191439025</v>
+        <v>3061.081427216046</v>
       </c>
       <c r="R9">
-        <v>0.6543999191439025</v>
+        <v>27549.73284494441</v>
       </c>
       <c r="S9">
-        <v>0.0001291077924869334</v>
+        <v>0.1838269027499733</v>
       </c>
       <c r="T9">
-        <v>0.0001291077924869334</v>
+        <v>0.1961099838824295</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.297937132205239</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H10">
-        <v>0.297937132205239</v>
+        <v>1340.005157</v>
       </c>
       <c r="I10">
-        <v>0.000479474917722696</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J10">
-        <v>0.000479474917722696</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.899198141059578</v>
+        <v>8.818982666666665</v>
       </c>
       <c r="N10">
-        <v>0.899198141059578</v>
+        <v>26.456948</v>
       </c>
       <c r="O10">
-        <v>0.110235977823924</v>
+        <v>0.3690616607316352</v>
       </c>
       <c r="P10">
-        <v>0.110235977823924</v>
+        <v>0.3762916855829809</v>
       </c>
       <c r="Q10">
-        <v>0.2679045154315726</v>
+        <v>3939.160750942314</v>
       </c>
       <c r="R10">
-        <v>0.2679045154315726</v>
+        <v>35452.44675848083</v>
       </c>
       <c r="S10">
-        <v>5.28553863972069E-05</v>
+        <v>0.2365581372131456</v>
       </c>
       <c r="T10">
-        <v>5.28553863972069E-05</v>
+        <v>0.2523646527365226</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>81.157058922622</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H11">
-        <v>81.157058922622</v>
+        <v>1340.005157</v>
       </c>
       <c r="I11">
-        <v>0.1306073326997538</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J11">
-        <v>0.1306073326997538</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.06139526625746</v>
+        <v>1.377387</v>
       </c>
       <c r="N11">
-        <v>5.06139526625746</v>
+        <v>2.754774</v>
       </c>
       <c r="O11">
-        <v>0.6204948952316656</v>
+        <v>0.05764165243362517</v>
       </c>
       <c r="P11">
-        <v>0.6204948952316656</v>
+        <v>0.0391805794024379</v>
       </c>
       <c r="Q11">
-        <v>410.7679538543367</v>
+        <v>615.235227728253</v>
       </c>
       <c r="R11">
-        <v>410.7679538543367</v>
+        <v>3691.411366369518</v>
       </c>
       <c r="S11">
-        <v>0.081041183220021</v>
+        <v>0.03694667687387106</v>
       </c>
       <c r="T11">
-        <v>0.081041183220021</v>
+        <v>0.02627693806094344</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>81.157058922622</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H12">
-        <v>81.157058922622</v>
+        <v>1.422499</v>
       </c>
       <c r="I12">
-        <v>0.1306073326997538</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J12">
-        <v>0.1306073326997538</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.19643625586457</v>
+        <v>1.148853</v>
       </c>
       <c r="N12">
-        <v>2.19643625586457</v>
+        <v>3.446559</v>
       </c>
       <c r="O12">
-        <v>0.2692691269444105</v>
+        <v>0.04807783529489357</v>
       </c>
       <c r="P12">
-        <v>0.2692691269444105</v>
+        <v>0.04901969401652802</v>
       </c>
       <c r="Q12">
-        <v>178.2563066369841</v>
+        <v>0.544747414549</v>
       </c>
       <c r="R12">
-        <v>178.2563066369841</v>
+        <v>4.902726730941001</v>
       </c>
       <c r="S12">
-        <v>0.03516852244860085</v>
+        <v>3.271367729955221E-05</v>
       </c>
       <c r="T12">
-        <v>0.03516852244860085</v>
+        <v>3.489956383955403E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4741663333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.422499</v>
+      </c>
+      <c r="I13">
+        <v>0.0006804315772309074</v>
+      </c>
+      <c r="J13">
+        <v>0.0007119498507637953</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.697325333333334</v>
+      </c>
+      <c r="N13">
+        <v>17.091976</v>
+      </c>
+      <c r="O13">
+        <v>0.2384248193610712</v>
+      </c>
+      <c r="P13">
+        <v>0.2430956306443153</v>
+      </c>
+      <c r="Q13">
+        <v>2.701479863113779</v>
+      </c>
+      <c r="R13">
+        <v>24.31331876802401</v>
+      </c>
+      <c r="S13">
+        <v>0.0001622317758888478</v>
+      </c>
+      <c r="T13">
+        <v>0.000173071897958551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4741663333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.422499</v>
+      </c>
+      <c r="I14">
+        <v>0.0006804315772309074</v>
+      </c>
+      <c r="J14">
+        <v>0.0007119498507637953</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.853141</v>
+      </c>
+      <c r="N14">
+        <v>20.559423</v>
+      </c>
+      <c r="O14">
+        <v>0.286794032178775</v>
+      </c>
+      <c r="P14">
+        <v>0.2924124103537379</v>
+      </c>
+      <c r="Q14">
+        <v>3.249528739786334</v>
+      </c>
+      <c r="R14">
+        <v>29.245758658077</v>
+      </c>
+      <c r="S14">
+        <v>0.0001951437156558155</v>
+      </c>
+      <c r="T14">
+        <v>0.0002081829719128253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4741663333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.422499</v>
+      </c>
+      <c r="I15">
+        <v>0.0006804315772309074</v>
+      </c>
+      <c r="J15">
+        <v>0.0007119498507637953</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>8.818982666666665</v>
+      </c>
+      <c r="N15">
+        <v>26.456948</v>
+      </c>
+      <c r="O15">
+        <v>0.3690616607316352</v>
+      </c>
+      <c r="P15">
+        <v>0.3762916855829809</v>
+      </c>
+      <c r="Q15">
+        <v>4.181664674783556</v>
+      </c>
+      <c r="R15">
+        <v>37.634982073052</v>
+      </c>
+      <c r="S15">
+        <v>0.0002511212079070845</v>
+      </c>
+      <c r="T15">
+        <v>0.0002679008093944602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4741663333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.422499</v>
+      </c>
+      <c r="I16">
+        <v>0.0006804315772309074</v>
+      </c>
+      <c r="J16">
+        <v>0.0007119498507637953</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.377387</v>
+      </c>
+      <c r="N16">
+        <v>2.754774</v>
+      </c>
+      <c r="O16">
+        <v>0.05764165243362517</v>
+      </c>
+      <c r="P16">
+        <v>0.0391805794024379</v>
+      </c>
+      <c r="Q16">
+        <v>0.6531105433710001</v>
+      </c>
+      <c r="R16">
+        <v>3.918663260226</v>
+      </c>
+      <c r="S16">
+        <v>3.922120047960734E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.789460765840469E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>81.157058922622</v>
-      </c>
-      <c r="H13">
-        <v>81.157058922622</v>
-      </c>
-      <c r="I13">
-        <v>0.1306073326997538</v>
-      </c>
-      <c r="J13">
-        <v>0.1306073326997538</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.899198141059578</v>
-      </c>
-      <c r="N13">
-        <v>0.899198141059578</v>
-      </c>
-      <c r="O13">
-        <v>0.110235977823924</v>
-      </c>
-      <c r="P13">
-        <v>0.110235977823924</v>
-      </c>
-      <c r="Q13">
-        <v>72.97627651708434</v>
-      </c>
-      <c r="R13">
-        <v>72.97627651708434</v>
-      </c>
-      <c r="S13">
-        <v>0.01439762703113192</v>
-      </c>
-      <c r="T13">
-        <v>0.01439762703113192</v>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.184895</v>
+      </c>
+      <c r="I17">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J17">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>1.148853</v>
+      </c>
+      <c r="N17">
+        <v>3.446559</v>
+      </c>
+      <c r="O17">
+        <v>0.04807783529489357</v>
+      </c>
+      <c r="P17">
+        <v>0.04901969401652802</v>
+      </c>
+      <c r="Q17">
+        <v>0.070805725145</v>
+      </c>
+      <c r="R17">
+        <v>0.6372515263049999</v>
+      </c>
+      <c r="S17">
+        <v>4.252091118728876E-06</v>
+      </c>
+      <c r="T17">
+        <v>4.536210469121132E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.184895</v>
+      </c>
+      <c r="I18">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J18">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.697325333333334</v>
+      </c>
+      <c r="N18">
+        <v>17.091976</v>
+      </c>
+      <c r="O18">
+        <v>0.2384248193610712</v>
+      </c>
+      <c r="P18">
+        <v>0.2430956306443153</v>
+      </c>
+      <c r="Q18">
+        <v>0.3511356558355556</v>
+      </c>
+      <c r="R18">
+        <v>3.16022090252</v>
+      </c>
+      <c r="S18">
+        <v>2.108672428097912E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.249571252636823E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.184895</v>
+      </c>
+      <c r="I19">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J19">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.853141</v>
+      </c>
+      <c r="N19">
+        <v>20.559423</v>
+      </c>
+      <c r="O19">
+        <v>0.286794032178775</v>
+      </c>
+      <c r="P19">
+        <v>0.2924124103537379</v>
+      </c>
+      <c r="Q19">
+        <v>0.4223705017316667</v>
+      </c>
+      <c r="R19">
+        <v>3.801334515585</v>
+      </c>
+      <c r="S19">
+        <v>2.53645853573057E-05</v>
+      </c>
+      <c r="T19">
+        <v>2.705941486905919E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.184895</v>
+      </c>
+      <c r="I20">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J20">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>8.818982666666665</v>
+      </c>
+      <c r="N20">
+        <v>26.456948</v>
+      </c>
+      <c r="O20">
+        <v>0.3690616607316352</v>
+      </c>
+      <c r="P20">
+        <v>0.3762916855829809</v>
+      </c>
+      <c r="Q20">
+        <v>0.543528600051111</v>
+      </c>
+      <c r="R20">
+        <v>4.89175740046</v>
+      </c>
+      <c r="S20">
+        <v>3.264048392018581E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.482147977115534E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.184895</v>
+      </c>
+      <c r="I21">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J21">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.377387</v>
+      </c>
+      <c r="N21">
+        <v>2.754774</v>
+      </c>
+      <c r="O21">
+        <v>0.05764165243362517</v>
+      </c>
+      <c r="P21">
+        <v>0.0391805794024379</v>
+      </c>
+      <c r="Q21">
+        <v>0.08489065645499999</v>
+      </c>
+      <c r="R21">
+        <v>0.5093439387299999</v>
+      </c>
+      <c r="S21">
+        <v>5.097932485489971E-06</v>
+      </c>
+      <c r="T21">
+        <v>3.625713257443931E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H22">
+        <v>185.101749</v>
+      </c>
+      <c r="I22">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J22">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>1.148853</v>
+      </c>
+      <c r="N22">
+        <v>3.446559</v>
+      </c>
+      <c r="O22">
+        <v>0.04807783529489357</v>
+      </c>
+      <c r="P22">
+        <v>0.04901969401652802</v>
+      </c>
+      <c r="Q22">
+        <v>106.3273498219485</v>
+      </c>
+      <c r="R22">
+        <v>637.9640989316908</v>
+      </c>
+      <c r="S22">
+        <v>0.006385268690208616</v>
+      </c>
+      <c r="T22">
+        <v>0.004541282845217189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H23">
+        <v>185.101749</v>
+      </c>
+      <c r="I23">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J23">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.697325333333334</v>
+      </c>
+      <c r="N23">
+        <v>17.091976</v>
+      </c>
+      <c r="O23">
+        <v>0.2384248193610712</v>
+      </c>
+      <c r="P23">
+        <v>0.2430956306443153</v>
+      </c>
+      <c r="Q23">
+        <v>527.2924419110041</v>
+      </c>
+      <c r="R23">
+        <v>3163.754651466024</v>
+      </c>
+      <c r="S23">
+        <v>0.03166545508334462</v>
+      </c>
+      <c r="T23">
+        <v>0.02252086716045305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H24">
+        <v>185.101749</v>
+      </c>
+      <c r="I24">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J24">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.853141</v>
+      </c>
+      <c r="N24">
+        <v>20.559423</v>
+      </c>
+      <c r="O24">
+        <v>0.286794032178775</v>
+      </c>
+      <c r="P24">
+        <v>0.2924124103537379</v>
+      </c>
+      <c r="Q24">
+        <v>634.2641926218045</v>
+      </c>
+      <c r="R24">
+        <v>3805.585155730827</v>
+      </c>
+      <c r="S24">
+        <v>0.03808942193377653</v>
+      </c>
+      <c r="T24">
+        <v>0.02708967262056552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H25">
+        <v>185.101749</v>
+      </c>
+      <c r="I25">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J25">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>8.818982666666665</v>
+      </c>
+      <c r="N25">
+        <v>26.456948</v>
+      </c>
+      <c r="O25">
+        <v>0.3690616607316352</v>
+      </c>
+      <c r="P25">
+        <v>0.3762916855829809</v>
+      </c>
+      <c r="Q25">
+        <v>816.2045580003418</v>
+      </c>
+      <c r="R25">
+        <v>4897.227348002051</v>
+      </c>
+      <c r="S25">
+        <v>0.04901547360798915</v>
+      </c>
+      <c r="T25">
+        <v>0.03486041703890843</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H26">
+        <v>185.101749</v>
+      </c>
+      <c r="I26">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J26">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.377387</v>
+      </c>
+      <c r="N26">
+        <v>2.754774</v>
+      </c>
+      <c r="O26">
+        <v>0.05764165243362517</v>
+      </c>
+      <c r="P26">
+        <v>0.0391805794024379</v>
+      </c>
+      <c r="Q26">
+        <v>127.4783713749315</v>
+      </c>
+      <c r="R26">
+        <v>509.9134854997259</v>
+      </c>
+      <c r="S26">
+        <v>0.007655449466032971</v>
+      </c>
+      <c r="T26">
+        <v>0.003629767518458362</v>
       </c>
     </row>
   </sheetData>
